--- a/PROJEÇÃO_VENDAS_PCP.xlsx
+++ b/PROJEÇÃO_VENDAS_PCP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\OneDrive\Documentos\PCP - PLANEJAMENTO E CONTROLE DE PRODUÇÃO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB9571D-4293-406A-9464-130F2892FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803DDCF-7133-4416-83ED-6AC1639EA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10DE63E4-252D-434C-8B47-DDE71930A8C5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Produto</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Roçadeira Horizontal</t>
+  </si>
+  <si>
+    <t>Junho_P</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -367,11 +396,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.7458958934481011E-4"/>
-                  <c:y val="-8.5491761446485862E-2"/>
+                  <c:x val="3.2324023990575476E-2"/>
+                  <c:y val="-9.8248579061739311E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -431,19 +460,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,17 +1309,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42404986-8E72-48CE-B747-F7933ABDFC3E}" name="Tabela3" displayName="Tabela3" ref="A4:F12" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42404986-8E72-48CE-B747-F7933ABDFC3E}" name="Tabela3" displayName="Tabela3" ref="A4:F12" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A4:F12" xr:uid="{42404986-8E72-48CE-B747-F7933ABDFC3E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CE12FFF9-48A7-4E6C-A623-079ACD21C99A}" name="Produto"/>
-    <tableColumn id="2" xr3:uid="{AE70C978-4D94-4789-A136-74B3620C9A52}" name="Jan" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{ECCF5BE8-A7AA-4865-95F9-E7AECE3B1A17}" name="Fev" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{CC7D208F-A1CE-4E69-BC72-5AB8EF4A7A01}" name="Mar" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{F9895599-E53E-4042-9C45-DB52ED222425}" name="Abr" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{98D1D6E5-B569-445E-A068-CB27566AF9AA}" name="Mai" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{AE70C978-4D94-4789-A136-74B3620C9A52}" name="Jan" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{ECCF5BE8-A7AA-4865-95F9-E7AECE3B1A17}" name="Fev" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{CC7D208F-A1CE-4E69-BC72-5AB8EF4A7A01}" name="Mar" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{F9895599-E53E-4042-9C45-DB52ED222425}" name="Abr" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{98D1D6E5-B569-445E-A068-CB27566AF9AA}" name="Mai" dataDxfId="3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EAC64B2B-FDA5-4AB7-94FA-D874A0DBF7B6}" name="Tabela4" displayName="Tabela4" ref="H4:H12" totalsRowShown="0" totalsRowDxfId="2" dataCellStyle="Normal">
+  <autoFilter ref="H4:H12" xr:uid="{EAC64B2B-FDA5-4AB7-94FA-D874A0DBF7B6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1F8C4713-66C2-4F5F-ACA6-78977D3CD82A}" name="Junho_P" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Normal">
+      <calculatedColumnFormula>0.1*6+82.5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1613,14 +1654,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724ABE46-F0A1-4964-B05E-96DCB21F82B7}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1658,6 +1700,9 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1693,25 +1738,29 @@
       <c r="F5" s="1">
         <v>92</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H12" si="0">0.1*6+82.5</f>
+        <v>83.1</v>
+      </c>
       <c r="I5" s="1" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(B:B,CELL("lin"))</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDEX(C:C,CELL("lin"))</f>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(D:D,CELL("lin"))</f>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(E:E,CELL("lin"))</f>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M5" s="1" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(F:F,CELL("lin"))</f>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1733,6 +1782,10 @@
       <c r="F6" s="1">
         <v>72</v>
       </c>
+      <c r="H6">
+        <f>-4.5*6+79.5</f>
+        <v>52.5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1812,10 +1865,6 @@
       </c>
       <c r="F10" s="1">
         <v>60</v>
-      </c>
-      <c r="G10">
-        <f>-0.5*6+68.5</f>
-        <v>65.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1863,8 +1912,9 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>